--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_2019-01-22.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_2019-01-22.xlsx
@@ -745,7 +745,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="81">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -779,10 +779,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="25" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -934,10 +930,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -950,10 +942,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="19" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -965,14 +953,6 @@
     <xf numFmtId="164" fontId="9" fillId="5" borderId="10" xfId="25" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="19" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -1255,8 +1235,8 @@
   </sheetPr>
   <dimension ref="A1:AB65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1269,7 +1249,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="7.49"/>
@@ -1277,7 +1257,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="19" style="1" width="6.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="22.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="1" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="1" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,2555 +1333,2553 @@
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P9" s="8"/>
-      <c r="Q9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="17" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AB10" s="18" t="s">
+      <c r="AB10" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="20" t="n">
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="19" t="n">
         <v>43838</v>
       </c>
-      <c r="L11" s="21" t="n">
+      <c r="L11" s="20" t="n">
         <f aca="false">K11+7</f>
         <v>43845</v>
       </c>
-      <c r="M11" s="21" t="n">
+      <c r="M11" s="20" t="n">
         <f aca="false">L11+7</f>
         <v>43852</v>
       </c>
-      <c r="N11" s="21" t="n">
+      <c r="N11" s="20" t="n">
         <f aca="false">M11+7</f>
         <v>43859</v>
       </c>
-      <c r="O11" s="21" t="n">
+      <c r="O11" s="20" t="n">
         <f aca="false">N11+7</f>
         <v>43866</v>
       </c>
-      <c r="P11" s="21" t="n">
+      <c r="P11" s="20" t="n">
         <f aca="false">O11+7</f>
         <v>43873</v>
       </c>
-      <c r="Q11" s="21" t="n">
+      <c r="Q11" s="20" t="n">
         <f aca="false">P11+7</f>
         <v>43880</v>
       </c>
-      <c r="R11" s="21" t="n">
+      <c r="R11" s="20" t="n">
         <f aca="false">Q11+7</f>
         <v>43887</v>
       </c>
-      <c r="S11" s="21" t="n">
+      <c r="S11" s="20" t="n">
         <f aca="false">R11+7</f>
         <v>43894</v>
       </c>
-      <c r="T11" s="21" t="n">
+      <c r="T11" s="20" t="n">
         <f aca="false">S11+7</f>
         <v>43901</v>
       </c>
-      <c r="U11" s="21" t="n">
+      <c r="U11" s="20" t="n">
         <f aca="false">T11+7</f>
         <v>43908</v>
       </c>
-      <c r="V11" s="21" t="n">
+      <c r="V11" s="20" t="n">
         <f aca="false">U11+7</f>
         <v>43915</v>
       </c>
-      <c r="W11" s="21" t="n">
+      <c r="W11" s="20" t="n">
         <f aca="false">V11+7</f>
         <v>43922</v>
       </c>
-      <c r="X11" s="21" t="n">
+      <c r="X11" s="20" t="n">
         <f aca="false">W11+7</f>
         <v>43929</v>
       </c>
-      <c r="Y11" s="21" t="n">
+      <c r="Y11" s="20" t="n">
         <f aca="false">X11+7</f>
         <v>43936</v>
       </c>
-      <c r="Z11" s="21" t="n">
+      <c r="Z11" s="20" t="n">
         <f aca="false">Y11+7</f>
         <v>43943</v>
       </c>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="n">
+      <c r="A13" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="24" t="n">
+      <c r="C13" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="D13" s="24" t="n">
+      <c r="D13" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="E13" s="24" t="n">
+      <c r="E13" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="F13" s="24" t="n">
+      <c r="F13" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="25" t="n">
+      <c r="G13" s="24" t="n">
         <f aca="false">VLOOKUP(H13,Feuil2!A1:B3,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="27" t="n">
+      <c r="I13" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="J13" s="27" t="n">
+      <c r="J13" s="26" t="n">
         <f aca="false">C13+D13+F13+E13</f>
         <v>12</v>
       </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="31" t="n">
+      <c r="K13" s="32"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="30" t="n">
         <f aca="false">I13-J13</f>
         <v>-6</v>
       </c>
-      <c r="AB13" s="31"/>
+      <c r="AB13" s="30"/>
     </row>
     <row r="14" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="n">
+      <c r="A14" s="21" t="n">
         <f aca="false">A13+1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="24" t="n">
+      <c r="C14" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="D14" s="24" t="n">
+      <c r="D14" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="E14" s="24" t="n">
+      <c r="E14" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="24" t="n">
+      <c r="F14" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="25" t="n">
+      <c r="G14" s="24" t="n">
         <f aca="false">VLOOKUP(H14,Feuil2!A2:B4,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="27" t="n">
+      <c r="I14" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="J14" s="27" t="n">
+      <c r="J14" s="26" t="n">
         <f aca="false">C14+D14+F14+E14</f>
         <v>12</v>
       </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="34" t="n">
+      <c r="K14" s="32"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="33" t="n">
         <f aca="false">I14-J14</f>
         <v>-6</v>
       </c>
-      <c r="AB14" s="35"/>
+      <c r="AB14" s="34"/>
     </row>
     <row r="15" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="n">
+      <c r="A15" s="21" t="n">
         <f aca="false">A14+1</f>
         <v>3</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="24" t="n">
+      <c r="C15" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="24" t="n">
+      <c r="D15" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="E15" s="24" t="n">
+      <c r="E15" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="F15" s="24" t="n">
+      <c r="F15" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="25" t="n">
+      <c r="G15" s="24" t="n">
         <f aca="false">VLOOKUP(H15,Feuil2!A3:B5,2,0)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="27" t="n">
+      <c r="I15" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="J15" s="27" t="n">
+      <c r="J15" s="26" t="n">
         <f aca="false">C15+D15+F15+E15</f>
         <v>12</v>
       </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="33"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="36" t="n">
+      <c r="K15" s="28"/>
+      <c r="L15" s="32"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="35" t="n">
         <f aca="false">I15-J15</f>
         <v>-6</v>
       </c>
-      <c r="AB15" s="37"/>
+      <c r="AB15" s="36"/>
     </row>
     <row r="16" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="n">
+      <c r="A16" s="21" t="n">
         <f aca="false">A15+1</f>
         <v>4</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="24" t="n">
+      <c r="C16" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="24" t="n">
+      <c r="D16" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="E16" s="24" t="n">
+      <c r="E16" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="24" t="n">
+      <c r="F16" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="26" t="s">
+      <c r="G16" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="27" t="n">
+      <c r="I16" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="J16" s="27" t="n">
+      <c r="J16" s="26" t="n">
         <f aca="false">C16+D16+F16+E16</f>
         <v>12</v>
       </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="34" t="n">
+      <c r="K16" s="28"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="33" t="n">
         <f aca="false">I16-J16</f>
         <v>-10</v>
       </c>
-      <c r="AB16" s="35"/>
+      <c r="AB16" s="34"/>
     </row>
     <row r="17" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="n">
+      <c r="A17" s="21" t="n">
         <f aca="false">A16+1</f>
         <v>5</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="24" t="n">
+      <c r="C17" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="D17" s="24" t="n">
+      <c r="D17" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="E17" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="24" t="n">
+      <c r="E17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="26" t="s">
+      <c r="G17" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="27" t="n">
+      <c r="I17" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="J17" s="27" t="n">
+      <c r="J17" s="26" t="n">
         <f aca="false">C17+D17+F17+E17</f>
         <v>9</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="35"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="34"/>
     </row>
     <row r="18" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="n">
+      <c r="A18" s="21" t="n">
         <f aca="false">A17+1</f>
         <v>6</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="24" t="n">
+      <c r="C18" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="24" t="n">
+      <c r="D18" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="26" t="s">
+      <c r="E18" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="27" t="n">
+      <c r="I18" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="J18" s="27" t="n">
+      <c r="J18" s="26" t="n">
         <f aca="false">C18+D18+F18+E18</f>
         <v>4</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="35"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="34"/>
     </row>
     <row r="19" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="n">
+      <c r="A19" s="21" t="n">
         <f aca="false">A18+1</f>
         <v>7</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="24" t="n">
+      <c r="C19" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="25" t="n">
+      <c r="D19" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="24" t="n">
         <f aca="false">VLOOKUP(H19,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="27" t="n">
+      <c r="I19" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="J19" s="27" t="n">
+      <c r="J19" s="26" t="n">
         <f aca="false">C19+D19+F19+E19</f>
         <v>2</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="40"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="39"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="34" t="n">
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="33" t="n">
         <f aca="false">I19-J19</f>
         <v>3</v>
       </c>
-      <c r="AB19" s="35"/>
+      <c r="AB19" s="34"/>
     </row>
     <row r="20" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="n">
+      <c r="A20" s="21" t="n">
         <f aca="false">A19+1</f>
         <v>8</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="24" t="n">
+      <c r="C20" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="D20" s="24" t="n">
+      <c r="D20" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="25" t="n">
+      <c r="E20" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="24" t="n">
         <f aca="false">VLOOKUP(H20,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="27" t="n">
+      <c r="I20" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="J20" s="27" t="n">
+      <c r="J20" s="26" t="n">
         <f aca="false">C20+D20+F20+E20</f>
         <v>4</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="34" t="n">
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="33" t="n">
         <f aca="false">I20-J20</f>
         <v>0</v>
       </c>
-      <c r="AB20" s="35"/>
+      <c r="AB20" s="34"/>
     </row>
     <row r="21" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="n">
+      <c r="A21" s="21" t="n">
         <f aca="false">A20+1</f>
         <v>9</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="24" t="n">
+      <c r="C21" s="23" t="n">
         <v>1.5</v>
       </c>
-      <c r="D21" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="24" t="n">
+      <c r="D21" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="23" t="n">
         <v>1.5</v>
       </c>
-      <c r="G21" s="25" t="n">
+      <c r="G21" s="24" t="n">
         <f aca="false">VLOOKUP(H21,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="27" t="n">
+      <c r="I21" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="J21" s="27" t="n">
+      <c r="J21" s="26" t="n">
         <f aca="false">C21+D21+F21+E21</f>
         <v>3</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="34" t="n">
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="33" t="n">
         <f aca="false">I21-J21</f>
         <v>2</v>
       </c>
-      <c r="AB21" s="35"/>
+      <c r="AB21" s="34"/>
     </row>
     <row r="22" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="n">
+      <c r="A22" s="21" t="n">
         <f aca="false">A21+1</f>
         <v>10</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="24" t="n">
+      <c r="C22" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="D22" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="24" t="n">
+      <c r="D22" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="G22" s="25" t="n">
+      <c r="G22" s="24" t="n">
         <f aca="false">VLOOKUP(H22,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="27" t="n">
+      <c r="I22" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="J22" s="27" t="n">
+      <c r="J22" s="26" t="n">
         <f aca="false">C22+D22+F22+E22</f>
         <v>4</v>
       </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="34" t="n">
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="33" t="n">
         <f aca="false">I22-J22</f>
         <v>2</v>
       </c>
-      <c r="AB22" s="35"/>
+      <c r="AB22" s="34"/>
     </row>
     <row r="23" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="n">
+      <c r="A23" s="21" t="n">
         <f aca="false">A22+1</f>
         <v>11</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="24" t="n">
+      <c r="C23" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="E23" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="F23" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="25" t="n">
+      <c r="F23" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="24" t="n">
         <f aca="false">VLOOKUP(H23,Feuil2!A1:B3,2,0)</f>
-        <v>75</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="27" t="n">
+        <v>100</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="26" t="n">
         <v>12</v>
       </c>
-      <c r="J23" s="27" t="n">
+      <c r="J23" s="26" t="n">
         <f aca="false">C23+D23+F23+E23</f>
+        <v>9</v>
+      </c>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="33" t="n">
+        <f aca="false">I23-J23</f>
         <v>3</v>
       </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="34" t="n">
-        <f aca="false">I23-J23</f>
-        <v>9</v>
-      </c>
-      <c r="AB23" s="35"/>
+      <c r="AB23" s="34"/>
     </row>
     <row r="24" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="n">
+      <c r="A24" s="21" t="n">
         <f aca="false">A23+1</f>
         <v>12</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="25" t="n">
+      <c r="C24" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="24" t="n">
         <f aca="false">VLOOKUP(H24,Feuil2!A1:B3,2,0)</f>
         <v>75</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="47" t="n">
+      <c r="I24" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="J24" s="27" t="n">
+      <c r="J24" s="26" t="n">
         <f aca="false">C24+D24+F24+E24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="34" t="n">
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="33" t="n">
         <f aca="false">I24-J24</f>
         <v>10</v>
       </c>
-      <c r="AB24" s="35"/>
+      <c r="AB24" s="34"/>
     </row>
     <row r="25" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="n">
+      <c r="A25" s="21" t="n">
         <f aca="false">A24+1</f>
         <v>13</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="24" t="n">
+      <c r="C25" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="D25" s="24" t="n">
+      <c r="D25" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="E25" s="24" t="n">
+      <c r="E25" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="F25" s="24" t="n">
+      <c r="F25" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G25" s="25" t="n">
+      <c r="G25" s="24" t="n">
         <f aca="false">VLOOKUP(H25,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="27" t="n">
+      <c r="I25" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="J25" s="27" t="n">
+      <c r="J25" s="26" t="n">
         <f aca="false">C25+D25+F25+E25</f>
         <v>12</v>
       </c>
-      <c r="K25" s="44"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="34" t="n">
+      <c r="K25" s="43"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="33" t="n">
         <f aca="false">I25-J25</f>
         <v>18</v>
       </c>
-      <c r="AB25" s="35"/>
+      <c r="AB25" s="34"/>
     </row>
     <row r="26" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="n">
+      <c r="A26" s="21" t="n">
         <f aca="false">A25+1</f>
         <v>14</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="24" t="n">
+      <c r="C26" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="E26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26" t="s">
+      <c r="E26" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="27" t="n">
+      <c r="I26" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="J26" s="27" t="n">
+      <c r="J26" s="26" t="n">
         <f aca="false">C26+D26+F26+E26</f>
         <v>10</v>
       </c>
-      <c r="K26" s="44"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="35"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="34"/>
     </row>
     <row r="27" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="n">
+      <c r="A27" s="21" t="n">
         <f aca="false">A26+1</f>
         <v>15</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="24" t="n">
+      <c r="C27" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="E27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26" t="s">
+      <c r="E27" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="27" t="n">
+      <c r="I27" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="J27" s="27" t="n">
+      <c r="J27" s="26" t="n">
         <f aca="false">C27+D27+F27+E27</f>
         <v>5</v>
       </c>
-      <c r="K27" s="44"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="34" t="n">
+      <c r="K27" s="43"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="33" t="n">
         <f aca="false">I27-J27</f>
         <v>15</v>
       </c>
-      <c r="AB27" s="35"/>
+      <c r="AB27" s="34"/>
     </row>
     <row r="28" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="n">
+      <c r="A28" s="21" t="n">
         <f aca="false">A27+1</f>
         <v>16</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="24" t="n">
+      <c r="C28" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="D28" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="24" t="n">
+      <c r="D28" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="F28" s="24" t="n">
+      <c r="F28" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26" t="s">
+      <c r="G28" s="24"/>
+      <c r="H28" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="27" t="n">
+      <c r="I28" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="J28" s="27" t="n">
+      <c r="J28" s="26" t="n">
         <f aca="false">C28+D28+F28+E28</f>
         <v>22</v>
       </c>
-      <c r="K28" s="44"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="35"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="34"/>
     </row>
     <row r="29" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="n">
+      <c r="A29" s="21" t="n">
         <f aca="false">A28+1</f>
         <v>17</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="25" t="n">
+      <c r="C29" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="24" t="n">
         <f aca="false">VLOOKUP(H29,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="27" t="n">
+      <c r="I29" s="26" t="n">
         <v>13.5</v>
       </c>
-      <c r="J29" s="27" t="n">
+      <c r="J29" s="26" t="n">
         <f aca="false">C29+D29+F29+E29</f>
         <v>0</v>
       </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="34" t="n">
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="33" t="n">
         <f aca="false">I29-J29</f>
         <v>13.5</v>
       </c>
-      <c r="AB29" s="35" t="s">
+      <c r="AB29" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="n">
+      <c r="A30" s="21" t="n">
         <f aca="false">A29+1</f>
         <v>18</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="25" t="n">
+      <c r="C30" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="24" t="n">
         <f aca="false">VLOOKUP(H30,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="47" t="n">
+      <c r="I30" s="26" t="n">
         <v>21</v>
       </c>
-      <c r="J30" s="27" t="n">
+      <c r="J30" s="26" t="n">
         <f aca="false">C30+D30+F30+E30</f>
         <v>0</v>
       </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="34" t="n">
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="33" t="n">
         <f aca="false">I30-J30</f>
         <v>21</v>
       </c>
-      <c r="AB30" s="35"/>
+      <c r="AB30" s="34"/>
     </row>
     <row r="31" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="n">
+      <c r="A31" s="21" t="n">
         <f aca="false">A30+1</f>
         <v>19</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="25" t="n">
+      <c r="C31" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="24" t="n">
         <f aca="false">VLOOKUP(H31,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="27" t="n">
+      <c r="I31" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="J31" s="27" t="n">
+      <c r="J31" s="26" t="n">
         <f aca="false">C31+D31+F31+E31</f>
         <v>0</v>
       </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="34" t="n">
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="33" t="n">
         <f aca="false">I31-J31</f>
         <v>10</v>
       </c>
-      <c r="AB31" s="35"/>
+      <c r="AB31" s="34"/>
     </row>
     <row r="32" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="n">
+      <c r="A32" s="21" t="n">
         <f aca="false">A31+1</f>
         <v>20</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="25" t="n">
+      <c r="C32" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="24" t="n">
         <f aca="false">VLOOKUP(H32,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="47" t="n">
+      <c r="I32" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="J32" s="27" t="n">
+      <c r="J32" s="26" t="n">
         <f aca="false">C32+D32+F32+E32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="34" t="n">
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="33" t="n">
         <f aca="false">I32-J32</f>
         <v>5</v>
       </c>
-      <c r="AB32" s="35"/>
+      <c r="AB32" s="34"/>
     </row>
     <row r="33" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="n">
+      <c r="A33" s="21" t="n">
         <f aca="false">A32+1</f>
         <v>21</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="25" t="n">
+      <c r="C33" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="24" t="n">
         <f aca="false">VLOOKUP(H33,Feuil2!A1:B3,2,0)</f>
         <v>75</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="47" t="n">
+      <c r="I33" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="J33" s="27" t="n">
+      <c r="J33" s="26" t="n">
         <f aca="false">C33+D33+F33+E33</f>
         <v>0</v>
       </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="34" t="n">
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="33" t="n">
         <f aca="false">I33-J33</f>
         <v>5</v>
       </c>
-      <c r="AB33" s="35"/>
+      <c r="AB33" s="34"/>
     </row>
     <row r="34" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="n">
+      <c r="A34" s="21" t="n">
         <f aca="false">A33+1</f>
         <v>22</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="47" t="n">
+      <c r="C34" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="J34" s="27" t="n">
+      <c r="J34" s="26" t="n">
         <f aca="false">C34+D34+F34+E34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="34" t="n">
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="33" t="n">
         <f aca="false">I34-J34</f>
         <v>5</v>
       </c>
-      <c r="AB34" s="35"/>
+      <c r="AB34" s="34"/>
     </row>
     <row r="35" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="n">
+      <c r="A35" s="21" t="n">
         <f aca="false">A34+1</f>
         <v>23</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="25" t="n">
+      <c r="C35" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="24" t="n">
         <f aca="false">VLOOKUP(H35,Feuil2!A1:B3,2,0)</f>
         <v>75</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="27" t="n">
+      <c r="I35" s="26" t="n">
         <v>12</v>
       </c>
-      <c r="J35" s="27" t="n">
+      <c r="J35" s="26" t="n">
         <f aca="false">C35+D35+F35+E35</f>
         <v>0</v>
       </c>
-      <c r="K35" s="29"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="45"/>
-      <c r="Z35" s="45"/>
-      <c r="AA35" s="34" t="n">
+      <c r="K35" s="28"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="33" t="n">
         <f aca="false">I35-J35</f>
         <v>12</v>
       </c>
-      <c r="AB35" s="35"/>
+      <c r="AB35" s="34"/>
     </row>
     <row r="36" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="n">
+      <c r="A36" s="21" t="n">
         <f aca="false">A35+1</f>
         <v>24</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26" t="s">
+      <c r="C36" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I36" s="27" t="n">
+      <c r="I36" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="J36" s="27" t="n">
+      <c r="J36" s="26" t="n">
         <f aca="false">C36+D36+F36+E36</f>
         <v>0</v>
       </c>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="45"/>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="35"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="34"/>
     </row>
     <row r="37" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="n">
+      <c r="A37" s="21" t="n">
         <f aca="false">A36+1</f>
         <v>25</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26" t="s">
+      <c r="C37" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="27" t="n">
+      <c r="I37" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="J37" s="27" t="n">
+      <c r="J37" s="26" t="n">
         <f aca="false">C37+D37+F37+E37</f>
         <v>0</v>
       </c>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="35"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="44"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="34"/>
     </row>
     <row r="38" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22" t="n">
+      <c r="A38" s="21" t="n">
         <f aca="false">A37+1</f>
         <v>26</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="25" t="n">
+      <c r="C38" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="24" t="n">
         <f aca="false">VLOOKUP(H38,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H38" s="26" t="s">
+      <c r="H38" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="47" t="n">
+      <c r="I38" s="26" t="n">
         <v>50</v>
       </c>
-      <c r="J38" s="27" t="n">
+      <c r="J38" s="26" t="n">
         <f aca="false">C38+D38+F38+E38</f>
         <v>0</v>
       </c>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="45"/>
-      <c r="AA38" s="34" t="n">
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
+      <c r="AA38" s="33" t="n">
         <f aca="false">I38-J38</f>
         <v>50</v>
       </c>
-      <c r="AB38" s="35"/>
+      <c r="AB38" s="34"/>
     </row>
     <row r="39" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22" t="n">
+      <c r="A39" s="21" t="n">
         <f aca="false">A38+1</f>
         <v>27</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="25" t="n">
+      <c r="C39" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="24" t="n">
         <f aca="false">VLOOKUP(H39,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H39" s="26" t="s">
+      <c r="H39" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I39" s="47" t="n">
+      <c r="I39" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="J39" s="27" t="n">
+      <c r="J39" s="26" t="n">
         <f aca="false">C39+D39+F39+E39</f>
         <v>0</v>
       </c>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="45"/>
-      <c r="W39" s="45"/>
-      <c r="X39" s="45"/>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="34" t="n">
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="33" t="n">
         <f aca="false">I39-J39</f>
         <v>20</v>
       </c>
-      <c r="AB39" s="35"/>
+      <c r="AB39" s="34"/>
     </row>
     <row r="40" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="n">
+      <c r="A40" s="21" t="n">
         <f aca="false">A39+1</f>
         <v>28</v>
       </c>
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="25" t="n">
+      <c r="C40" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="24" t="n">
         <f aca="false">VLOOKUP(H40,Feuil2!A1:B3,2,0)</f>
         <v>100</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I40" s="47" t="n">
+      <c r="I40" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="J40" s="27" t="n">
+      <c r="J40" s="26" t="n">
         <f aca="false">C40+D40+F40+E40</f>
         <v>0</v>
       </c>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="34" t="n">
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="44"/>
+      <c r="AA40" s="33" t="n">
         <f aca="false">I40-J40</f>
         <v>5</v>
       </c>
-      <c r="AB40" s="35"/>
+      <c r="AB40" s="34"/>
     </row>
     <row r="41" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22" t="n">
+      <c r="A41" s="21" t="n">
         <f aca="false">A40+1</f>
         <v>29</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="26" t="s">
+      <c r="C41" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="24"/>
+      <c r="H41" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="47" t="n">
+      <c r="I41" s="26" t="n">
         <v>1.5</v>
       </c>
-      <c r="J41" s="27" t="n">
+      <c r="J41" s="26" t="n">
         <f aca="false">C41+D41+F41+E41</f>
         <v>0</v>
       </c>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="45"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="35"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="44"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="34"/>
     </row>
     <row r="42" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22" t="n">
+      <c r="A42" s="21" t="n">
         <f aca="false">A41+1</f>
         <v>30</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="25" t="n">
+      <c r="C42" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="24" t="n">
         <f aca="false">VLOOKUP(H42,Feuil2!A1:B3,2,0)</f>
         <v>75</v>
       </c>
-      <c r="H42" s="26" t="s">
+      <c r="H42" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="47" t="n">
+      <c r="I42" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="J42" s="27" t="n">
+      <c r="J42" s="26" t="n">
         <f aca="false">C42+D42+F42+E42</f>
         <v>0</v>
       </c>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="45"/>
-      <c r="AA42" s="34" t="n">
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="44"/>
+      <c r="Z42" s="44"/>
+      <c r="AA42" s="33" t="n">
         <f aca="false">I42-J42</f>
         <v>30</v>
       </c>
-      <c r="AB42" s="35"/>
+      <c r="AB42" s="34"/>
     </row>
     <row r="43" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22" t="n">
+      <c r="A43" s="21" t="n">
         <f aca="false">A42+1</f>
         <v>31</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="25" t="n">
+      <c r="C43" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="24" t="n">
         <f aca="false">VLOOKUP(H43,Feuil2!A1:B3,2,0)</f>
         <v>75</v>
       </c>
-      <c r="H43" s="26" t="s">
+      <c r="H43" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="47" t="n">
+      <c r="I43" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="J43" s="27" t="n">
+      <c r="J43" s="26" t="n">
         <f aca="false">C43+D43+F43+E43</f>
         <v>0</v>
       </c>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="45"/>
-      <c r="X43" s="45"/>
-      <c r="Y43" s="45"/>
-      <c r="Z43" s="45"/>
-      <c r="AA43" s="34" t="n">
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="44"/>
+      <c r="AA43" s="33" t="n">
         <f aca="false">I43-J43</f>
         <v>10</v>
       </c>
-      <c r="AB43" s="35"/>
+      <c r="AB43" s="34"/>
     </row>
     <row r="44" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22" t="n">
+      <c r="A44" s="21" t="n">
         <f aca="false">A43+1</f>
         <v>32</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="26" t="s">
+      <c r="C44" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I44" s="47" t="n">
+      <c r="I44" s="26" t="n">
         <v>50</v>
       </c>
-      <c r="J44" s="27" t="n">
+      <c r="J44" s="26" t="n">
         <f aca="false">C44+D44+F44+E44</f>
         <v>0</v>
       </c>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="45"/>
-      <c r="X44" s="45"/>
-      <c r="Y44" s="45"/>
-      <c r="Z44" s="45"/>
-      <c r="AA44" s="59"/>
-      <c r="AB44" s="60"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="54"/>
+      <c r="AB44" s="55"/>
     </row>
     <row r="45" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22" t="n">
+      <c r="A45" s="21" t="n">
         <f aca="false">A44+1</f>
         <v>33</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="25" t="n">
+      <c r="C45" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="24" t="n">
         <f aca="false">VLOOKUP(H45,Feuil2!A1:B3,2,0)</f>
         <v>75</v>
       </c>
-      <c r="H45" s="26" t="s">
+      <c r="H45" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="47" t="n">
+      <c r="I45" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="J45" s="27" t="n">
+      <c r="J45" s="26" t="n">
         <f aca="false">C45+D45+F45+E45</f>
         <v>0</v>
       </c>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="45"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="45"/>
-      <c r="W45" s="45"/>
-      <c r="X45" s="45"/>
-      <c r="Y45" s="45"/>
-      <c r="Z45" s="45"/>
-      <c r="AA45" s="59" t="n">
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="44"/>
+      <c r="AA45" s="54" t="n">
         <f aca="false">I45-J45</f>
         <v>20</v>
       </c>
-      <c r="AB45" s="60"/>
+      <c r="AB45" s="55"/>
     </row>
     <row r="46" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22" t="n">
+      <c r="A46" s="21" t="n">
         <f aca="false">A45+1</f>
         <v>34</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26" t="s">
+      <c r="C46" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="24"/>
+      <c r="H46" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="47" t="n">
+      <c r="I46" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="J46" s="27" t="n">
+      <c r="J46" s="26" t="n">
         <f aca="false">C46+D46+F46+E46</f>
         <v>0</v>
       </c>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="45"/>
-      <c r="W46" s="45"/>
-      <c r="X46" s="45"/>
-      <c r="Y46" s="45"/>
-      <c r="Z46" s="45"/>
-      <c r="AA46" s="59" t="n">
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="44"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="44"/>
+      <c r="AA46" s="54" t="n">
         <f aca="false">I46-J46</f>
         <v>10</v>
       </c>
-      <c r="AB46" s="60"/>
+      <c r="AB46" s="55"/>
     </row>
     <row r="47" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22" t="n">
+      <c r="A47" s="21" t="n">
         <f aca="false">A46+1</f>
         <v>35</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26" t="s">
+      <c r="C47" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="24"/>
+      <c r="H47" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="47" t="n">
+      <c r="I47" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="J47" s="27" t="n">
+      <c r="J47" s="26" t="n">
         <f aca="false">C47+D47+F47+E47</f>
         <v>0</v>
       </c>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="45"/>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="45"/>
-      <c r="Z47" s="45"/>
-      <c r="AA47" s="59" t="n">
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
+      <c r="AA47" s="54" t="n">
         <f aca="false">I47-J47</f>
         <v>10</v>
       </c>
-      <c r="AB47" s="60"/>
+      <c r="AB47" s="55"/>
     </row>
     <row r="48" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="22" t="n">
+      <c r="A48" s="21" t="n">
         <f aca="false">A47+1</f>
         <v>36</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="25"/>
-      <c r="H48" s="26" t="s">
+      <c r="C48" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="24"/>
+      <c r="H48" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="47" t="n">
+      <c r="I48" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="J48" s="27" t="n">
+      <c r="J48" s="26" t="n">
         <f aca="false">C48+D48+F48+E48</f>
         <v>0</v>
       </c>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="45"/>
-      <c r="U48" s="45"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="45"/>
-      <c r="X48" s="45"/>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="45"/>
-      <c r="AA48" s="59" t="n">
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="44"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="54" t="n">
         <f aca="false">I48-J48</f>
         <v>5</v>
       </c>
-      <c r="AB48" s="60"/>
+      <c r="AB48" s="55"/>
     </row>
     <row r="49" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="22" t="n">
+      <c r="A49" s="21" t="n">
         <f aca="false">A48+1</f>
         <v>37</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="26" t="s">
+      <c r="C49" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="24"/>
+      <c r="H49" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="47" t="n">
+      <c r="I49" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="J49" s="27" t="n">
+      <c r="J49" s="26" t="n">
         <f aca="false">C49+D49+F49+E49</f>
         <v>0</v>
       </c>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="45"/>
-      <c r="X49" s="45"/>
-      <c r="Y49" s="45"/>
-      <c r="Z49" s="45"/>
-      <c r="AA49" s="59" t="n">
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
+      <c r="Y49" s="44"/>
+      <c r="Z49" s="44"/>
+      <c r="AA49" s="54" t="n">
         <f aca="false">I49-J49</f>
         <v>5</v>
       </c>
-      <c r="AB49" s="60"/>
+      <c r="AB49" s="55"/>
     </row>
     <row r="50" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22" t="n">
+      <c r="A50" s="21" t="n">
         <f aca="false">A49+1</f>
         <v>38</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="26" t="s">
+      <c r="C50" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="24"/>
+      <c r="H50" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="47" t="n">
+      <c r="I50" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="J50" s="27" t="n">
+      <c r="J50" s="26" t="n">
         <f aca="false">C50+D50+F50+E50</f>
         <v>0</v>
       </c>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="45"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="45"/>
-      <c r="Y50" s="45"/>
-      <c r="Z50" s="45"/>
-      <c r="AA50" s="59" t="n">
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="44"/>
+      <c r="AA50" s="54" t="n">
         <f aca="false">I50-J50</f>
         <v>10</v>
       </c>
-      <c r="AB50" s="60"/>
+      <c r="AB50" s="55"/>
     </row>
     <row r="51" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22" t="n">
+      <c r="A51" s="21" t="n">
         <f aca="false">A50+1</f>
         <v>39</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26" t="s">
+      <c r="C51" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="24"/>
+      <c r="H51" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="47" t="n">
+      <c r="I51" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="J51" s="27" t="n">
+      <c r="J51" s="26" t="n">
         <f aca="false">C51+D51+F51+E51</f>
         <v>0</v>
       </c>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="45"/>
-      <c r="U51" s="45"/>
-      <c r="V51" s="45"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="45"/>
-      <c r="Y51" s="45"/>
-      <c r="Z51" s="45"/>
-      <c r="AA51" s="59" t="n">
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="44"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="44"/>
+      <c r="AA51" s="54" t="n">
         <f aca="false">I51-J51</f>
         <v>20</v>
       </c>
-      <c r="AB51" s="60"/>
+      <c r="AB51" s="55"/>
     </row>
     <row r="52" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="22" t="n">
+      <c r="A52" s="21" t="n">
         <f aca="false">A51+1</f>
         <v>40</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="26" t="s">
+      <c r="C52" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="24"/>
+      <c r="H52" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="47" t="n">
+      <c r="I52" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="J52" s="27" t="n">
+      <c r="J52" s="26" t="n">
         <f aca="false">C52+D52+F52+E52</f>
         <v>0</v>
       </c>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="45"/>
-      <c r="V52" s="45"/>
-      <c r="W52" s="45"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="45"/>
-      <c r="Z52" s="45"/>
-      <c r="AA52" s="59" t="n">
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="44"/>
+      <c r="Z52" s="44"/>
+      <c r="AA52" s="54" t="n">
         <f aca="false">I52-J52</f>
         <v>10</v>
       </c>
-      <c r="AB52" s="60"/>
+      <c r="AB52" s="55"/>
     </row>
     <row r="53" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="22" t="n">
+      <c r="A53" s="21" t="n">
         <f aca="false">A52+1</f>
         <v>41</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="26" t="s">
+      <c r="C53" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="24"/>
+      <c r="H53" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="47" t="n">
+      <c r="I53" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="J53" s="27" t="n">
+      <c r="J53" s="26" t="n">
         <f aca="false">C53+D53+F53+E53</f>
         <v>0</v>
       </c>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="61" t="n">
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="56" t="n">
         <f aca="false">I53-J53</f>
         <v>20</v>
       </c>
-      <c r="AB53" s="60"/>
+      <c r="AB53" s="55"/>
     </row>
     <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="62" t="s">
+      <c r="A54" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="62"/>
-      <c r="C54" s="63" t="n">
+      <c r="B54" s="57"/>
+      <c r="C54" s="58" t="n">
         <f aca="false">SUM(C13:C53)</f>
         <v>37.5</v>
       </c>
-      <c r="D54" s="64" t="n">
+      <c r="D54" s="59" t="n">
         <f aca="false">SUM(D13:D53)</f>
-        <v>37</v>
-      </c>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64" t="n">
+        <v>43</v>
+      </c>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59" t="n">
         <f aca="false">SUM(F13:F53)</f>
         <v>31.5</v>
       </c>
-      <c r="G54" s="65"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="68"/>
-      <c r="R54" s="9"/>
-      <c r="AA54" s="69" t="n">
+      <c r="G54" s="60"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="63"/>
+      <c r="AA54" s="64" t="n">
         <f aca="false">SUM(AA13:AA53)</f>
-        <v>327.5</v>
-      </c>
-      <c r="AB54" s="70"/>
+        <v>321.5</v>
+      </c>
+      <c r="AB54" s="65"/>
     </row>
     <row r="55" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="68" t="s">
+      <c r="A55" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="68"/>
-      <c r="C55" s="63" t="n">
+      <c r="B55" s="63"/>
+      <c r="C55" s="58" t="n">
         <f aca="false">135-C54</f>
         <v>97.5</v>
       </c>
-      <c r="D55" s="64" t="n">
+      <c r="D55" s="59" t="n">
         <f aca="false">135-D54</f>
-        <v>98</v>
-      </c>
-      <c r="E55" s="71"/>
-      <c r="F55" s="68" t="n">
+        <v>92</v>
+      </c>
+      <c r="E55" s="66"/>
+      <c r="F55" s="63" t="n">
         <f aca="false">135-F54</f>
         <v>103.5</v>
       </c>
-      <c r="G55" s="68"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="68"/>
-      <c r="AA55" s="72"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="AA55" s="67"/>
     </row>
     <row r="56" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="73" t="s">
+      <c r="A56" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="73"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="AA56" s="72"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="AA56" s="67"/>
     </row>
     <row r="57" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="68" t="s">
+      <c r="A57" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="76" t="n">
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="71" t="n">
         <f aca="false">SUM(I13:I53)</f>
         <v>537</v>
       </c>
-      <c r="J57" s="68" t="n">
+      <c r="J57" s="63" t="n">
         <f aca="false">SUM(J13:J53)</f>
-        <v>126</v>
-      </c>
-      <c r="AA57" s="72"/>
+        <v>132</v>
+      </c>
+      <c r="AA57" s="67"/>
     </row>
     <row r="58" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="74"/>
-      <c r="B58" s="74"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
-      <c r="AA58" s="72"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="69"/>
+      <c r="AA58" s="67"/>
     </row>
     <row r="59" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="77" t="s">
+      <c r="A59" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="77"/>
-      <c r="C59" s="78" t="n">
+      <c r="B59" s="72"/>
+      <c r="C59" s="73" t="n">
         <f aca="false">135*3</f>
         <v>405</v>
       </c>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="74"/>
-      <c r="AA59" s="72"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="AA59" s="67"/>
     </row>
     <row r="60" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="79" t="s">
+      <c r="A60" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="79"/>
-      <c r="C60" s="80" t="n">
+      <c r="B60" s="74"/>
+      <c r="C60" s="75" t="n">
         <f aca="false">C59-J57</f>
-        <v>279</v>
-      </c>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="74"/>
-      <c r="AA60" s="72"/>
+        <v>273</v>
+      </c>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="69"/>
+      <c r="AA60" s="67"/>
     </row>
     <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="81"/>
-      <c r="B61" s="74"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="74"/>
-      <c r="AA61" s="72"/>
+      <c r="A61" s="76"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="AA61" s="67"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="82"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
-    </row>
-    <row r="63" s="84" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="83"/>
-    </row>
-    <row r="64" s="84" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" s="84" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+    </row>
+    <row r="63" s="79" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="78"/>
+    </row>
+    <row r="64" s="79" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" s="79" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A4:AA4"/>
@@ -3983,14 +3961,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="85" t="n">
+      <c r="B1" s="80" t="n">
         <v>75</v>
       </c>
     </row>
@@ -4034,7 +4012,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.65"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Semainiers/Semainiers_EquipeLaMarqueSansNom_2019-01-22.xlsx
+++ b/Semainiers/Semainiers_EquipeLaMarqueSansNom_2019-01-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/marque-sans-nom/Semainiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D91F9D-A40F-134E-8BD0-BB25FDECA177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886E56E4-18C6-FD47-B516-21D74EB3A275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1717,10 +1717,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AML66"/>
+  <dimension ref="B1:AML63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1749,294 +1749,451 @@
     <col min="30" max="1026" width="10.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:29" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="2:29" ht="10" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="2:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="2:29" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="H4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-    </row>
-    <row r="5" spans="2:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="H1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+    </row>
+    <row r="2" spans="2:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" ht="24" x14ac:dyDescent="0.3">
+      <c r="C3" s="6"/>
+      <c r="E3" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" ht="21" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="O5" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="10"/>
       <c r="R5" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:29" ht="24" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
-      <c r="E6" s="119" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29" ht="21" x14ac:dyDescent="0.25">
-      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="S6" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="AA6" s="66">
         <v>1</v>
       </c>
-      <c r="G7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="O8" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="O9" s="66">
-        <v>0.25</v>
-      </c>
-      <c r="Q9" s="11"/>
-      <c r="S9" s="66">
-        <v>0.5</v>
-      </c>
-      <c r="W9" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="AA9" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="106" t="s">
+    </row>
+    <row r="7" spans="2:29" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C7" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D7" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="108" t="s">
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="109" t="s">
+      <c r="I7" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="110" t="s">
+      <c r="J7" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="110" t="s">
+      <c r="K7" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="111" t="s">
+      <c r="L7" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="111"/>
-      <c r="W10" s="111"/>
-      <c r="X10" s="111"/>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="111"/>
-      <c r="AB10" s="112" t="s">
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AC10" s="113" t="s">
+      <c r="AC7" s="113" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:29" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="114"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="115" t="s">
+    <row r="8" spans="2:29" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="114"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E8" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F8" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="115" t="s">
+      <c r="G8" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="108"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="116">
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="116">
         <v>43838</v>
       </c>
-      <c r="M11" s="117">
-        <f t="shared" ref="M11:AA11" si="0">L11+7</f>
+      <c r="M8" s="117">
+        <f t="shared" ref="M8:AA8" si="0">L8+7</f>
         <v>43845</v>
       </c>
-      <c r="N11" s="117">
+      <c r="N8" s="117">
         <f t="shared" si="0"/>
         <v>43852</v>
       </c>
-      <c r="O11" s="117">
+      <c r="O8" s="117">
         <f t="shared" si="0"/>
         <v>43859</v>
       </c>
-      <c r="P11" s="117">
+      <c r="P8" s="117">
         <f t="shared" si="0"/>
         <v>43866</v>
       </c>
-      <c r="Q11" s="117">
+      <c r="Q8" s="117">
         <f t="shared" si="0"/>
         <v>43873</v>
       </c>
-      <c r="R11" s="117">
+      <c r="R8" s="117">
         <f t="shared" si="0"/>
         <v>43880</v>
       </c>
-      <c r="S11" s="117">
+      <c r="S8" s="117">
         <f t="shared" si="0"/>
         <v>43887</v>
       </c>
-      <c r="T11" s="117">
+      <c r="T8" s="117">
         <f t="shared" si="0"/>
         <v>43894</v>
       </c>
-      <c r="U11" s="117">
+      <c r="U8" s="117">
         <f t="shared" si="0"/>
         <v>43901</v>
       </c>
-      <c r="V11" s="117">
+      <c r="V8" s="117">
         <f t="shared" si="0"/>
         <v>43908</v>
       </c>
-      <c r="W11" s="117">
+      <c r="W8" s="117">
         <f t="shared" si="0"/>
         <v>43915</v>
       </c>
-      <c r="X11" s="117">
+      <c r="X8" s="117">
         <f t="shared" si="0"/>
         <v>43922</v>
       </c>
-      <c r="Y11" s="117">
+      <c r="Y8" s="117">
         <f t="shared" si="0"/>
         <v>43929</v>
       </c>
-      <c r="Z11" s="117">
+      <c r="Z8" s="117">
         <f t="shared" si="0"/>
         <v>43936</v>
       </c>
-      <c r="AA11" s="117">
+      <c r="AA8" s="117">
         <f t="shared" si="0"/>
         <v>43943</v>
       </c>
-      <c r="AB11" s="112"/>
-      <c r="AC11" s="112"/>
+      <c r="AB8" s="112"/>
+      <c r="AC8" s="112"/>
+    </row>
+    <row r="9" spans="2:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="93"/>
+      <c r="C9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="105"/>
+    </row>
+    <row r="10" spans="2:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="94">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="15">
+        <f>VLOOKUP(I10,Feuil2!A1:B3,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="16">
+        <v>6</v>
+      </c>
+      <c r="K10" s="16">
+        <f t="shared" ref="K10:K51" si="1">D10+E10+G10+F10</f>
+        <v>6</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="96">
+        <f>J10-K10</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="99"/>
+    </row>
+    <row r="11" spans="2:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="94">
+        <f t="shared" ref="B11:B28" si="2">B10+1</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="15">
+        <f>VLOOKUP(I11,Feuil2!A2:B4,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="16">
+        <v>6</v>
+      </c>
+      <c r="K11" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="97">
+        <f>J11-K11</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="21"/>
     </row>
     <row r="12" spans="2:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="93"/>
-      <c r="C12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="103"/>
-      <c r="AB12" s="104"/>
-      <c r="AC12" s="105"/>
-    </row>
-    <row r="13" spans="2:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="94">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="14">
+        <v>3</v>
+      </c>
+      <c r="E12" s="14">
+        <v>3</v>
+      </c>
+      <c r="F12" s="14">
+        <v>3</v>
+      </c>
+      <c r="G12" s="14">
+        <v>3</v>
+      </c>
+      <c r="H12" s="15">
+        <f>VLOOKUP(I12,Feuil2!A3:B5,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="16">
+        <v>6</v>
+      </c>
+      <c r="K12" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="19"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="98">
+        <f>J12-K12</f>
+        <v>-6</v>
+      </c>
+      <c r="AC12" s="100"/>
+    </row>
+    <row r="13" spans="2:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="94">
-        <v>1</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G13" s="14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H13" s="15">
-        <f>VLOOKUP(I13,Feuil2!A1:B3,2,0)</f>
         <v>0</v>
       </c>
       <c r="I13" s="61" t="s">
         <v>2</v>
       </c>
       <c r="J13" s="16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K13" s="16">
-        <f t="shared" ref="K13:K54" si="1">D13+E13+G13+F13</f>
-        <v>6</v>
-      </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
       <c r="O13" s="67"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
@@ -2050,49 +2207,48 @@
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
       <c r="AA13" s="67"/>
-      <c r="AB13" s="96">
+      <c r="AB13" s="97">
         <f>J13-K13</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="99"/>
-    </row>
-    <row r="14" spans="2:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-6</v>
+      </c>
+      <c r="AC13" s="21"/>
+    </row>
+    <row r="14" spans="2:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="94">
-        <f t="shared" ref="B14:B31" si="2">B13+1</f>
-        <v>2</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="D14" s="14">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="14">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F14" s="14">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G14" s="14">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H14" s="15">
-        <f>VLOOKUP(I14,Feuil2!A2:B4,2,0)</f>
         <v>0</v>
       </c>
       <c r="I14" s="61" t="s">
         <v>2</v>
       </c>
       <c r="J14" s="16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K14" s="16">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L14" s="19"/>
+        <v>9</v>
+      </c>
+      <c r="L14" s="17"/>
       <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="N14" s="19"/>
       <c r="O14" s="67"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -2105,50 +2261,47 @@
       <c r="X14" s="17"/>
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="97">
-        <f>J14-K14</f>
-        <v>0</v>
-      </c>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="97"/>
       <c r="AC14" s="21"/>
     </row>
-    <row r="15" spans="2:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="94">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="D15" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" s="15">
-        <f>VLOOKUP(I15,Feuil2!A3:B5,2,0)</f>
         <v>0</v>
       </c>
       <c r="I15" s="61" t="s">
         <v>2</v>
       </c>
       <c r="J15" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15" s="16">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="19"/>
-      <c r="O15" s="67"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="68"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
@@ -2161,144 +2314,147 @@
       <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
       <c r="AA15" s="67"/>
-      <c r="AB15" s="98">
-        <f>J15-K15</f>
-        <v>-6</v>
-      </c>
-      <c r="AC15" s="100"/>
+      <c r="AB15" s="97"/>
+      <c r="AC15" s="21"/>
     </row>
     <row r="16" spans="2:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="94">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D16" s="14">
         <v>2</v>
       </c>
       <c r="E16" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="15">
+        <f>VLOOKUP(I16,Feuil2!A1:B3,2,0)</f>
         <v>0</v>
       </c>
       <c r="I16" s="61" t="s">
         <v>2</v>
       </c>
       <c r="J16" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K16" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L16" s="17"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="26"/>
       <c r="W16" s="67"/>
       <c r="X16" s="17"/>
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
       <c r="AA16" s="67"/>
       <c r="AB16" s="97">
-        <f>J16-K16</f>
-        <v>-6</v>
+        <f t="shared" ref="AB16:AB23" si="3">J16-K16</f>
+        <v>3</v>
       </c>
       <c r="AC16" s="21"/>
     </row>
-    <row r="17" spans="2:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="94">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D17" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="14">
         <v>0</v>
       </c>
       <c r="G17" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="15">
+        <f>VLOOKUP(I17,Feuil2!A1:B3,2,0)</f>
         <v>0</v>
       </c>
       <c r="I17" s="61" t="s">
         <v>2</v>
       </c>
       <c r="J17" s="16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K17" s="16">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="26"/>
       <c r="W17" s="67"/>
       <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="97"/>
+      <c r="AA17" s="77"/>
+      <c r="AB17" s="97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AC17" s="21"/>
     </row>
-    <row r="18" spans="2:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="94">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D18" s="14">
         <v>2</v>
       </c>
       <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14">
         <v>2</v>
       </c>
-      <c r="F18" s="14">
-        <v>0</v>
-      </c>
-      <c r="G18" s="14">
-        <v>0</v>
-      </c>
       <c r="H18" s="15">
-        <v>0</v>
+        <f>VLOOKUP(I18,Feuil2!A1:B3,2,0)</f>
+        <v>100</v>
       </c>
       <c r="I18" s="61" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" s="16">
         <v>5</v>
@@ -2308,31 +2464,34 @@
         <v>4</v>
       </c>
       <c r="L18" s="17"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="26"/>
       <c r="W18" s="67"/>
       <c r="X18" s="17"/>
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
       <c r="AA18" s="67"/>
-      <c r="AB18" s="97"/>
+      <c r="AB18" s="97">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="AC18" s="21"/>
     </row>
     <row r="19" spans="2:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="94">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D19" s="14">
         <v>2</v>
@@ -2344,60 +2503,60 @@
         <v>0</v>
       </c>
       <c r="G19" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="15">
         <f>VLOOKUP(I19,Feuil2!A1:B3,2,0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I19" s="61" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K19" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="26"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="17"/>
       <c r="W19" s="67"/>
       <c r="X19" s="17"/>
       <c r="Y19" s="17"/>
       <c r="Z19" s="17"/>
       <c r="AA19" s="67"/>
       <c r="AB19" s="97">
-        <f t="shared" ref="AB19:AB26" si="3">J19-K19</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="AC19" s="21"/>
     </row>
-    <row r="20" spans="2:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="94">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="14">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E20" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F20" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" s="14">
         <v>0</v>
@@ -2410,19 +2569,19 @@
         <v>2</v>
       </c>
       <c r="J20" s="16">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K20" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10.5</v>
       </c>
       <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="70"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="72"/>
       <c r="P20" s="25"/>
       <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
+      <c r="R20" s="29"/>
       <c r="S20" s="74"/>
       <c r="T20" s="25"/>
       <c r="U20" s="25"/>
@@ -2431,23 +2590,23 @@
       <c r="X20" s="17"/>
       <c r="Y20" s="17"/>
       <c r="Z20" s="17"/>
-      <c r="AA20" s="77"/>
+      <c r="AA20" s="67"/>
       <c r="AB20" s="97">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC20" s="21"/>
     </row>
-    <row r="21" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="94">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D21" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="14">
         <v>0</v>
@@ -2456,26 +2615,26 @@
         <v>0</v>
       </c>
       <c r="G21" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" s="15">
         <f>VLOOKUP(I21,Feuil2!A1:B3,2,0)</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I21" s="61" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21" s="16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K21" s="16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L21" s="17"/>
       <c r="M21" s="46"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="71"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="70"/>
       <c r="P21" s="25"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="10"/>
@@ -2490,20 +2649,20 @@
       <c r="AA21" s="67"/>
       <c r="AB21" s="97">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AC21" s="21"/>
     </row>
-    <row r="22" spans="2:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="94">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D22" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="14">
         <v>0</v>
@@ -2512,88 +2671,77 @@
         <v>0</v>
       </c>
       <c r="G22" s="14">
-        <v>2</v>
-      </c>
-      <c r="H22" s="15">
-        <f>VLOOKUP(I22,Feuil2!A1:B3,2,0)</f>
-        <v>100</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H22" s="15"/>
       <c r="I22" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="16">
-        <v>6</v>
-      </c>
-      <c r="K22" s="16">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
       <c r="L22" s="17"/>
       <c r="M22" s="46"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="26"/>
       <c r="W22" s="67"/>
       <c r="X22" s="17"/>
       <c r="Y22" s="17"/>
       <c r="Z22" s="17"/>
       <c r="AA22" s="67"/>
-      <c r="AB22" s="97">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
+      <c r="AB22" s="97"/>
       <c r="AC22" s="21"/>
     </row>
-    <row r="23" spans="2:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="94">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>31</v>
       </c>
       <c r="D23" s="14">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E23" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F23" s="14">
         <v>3</v>
       </c>
       <c r="G23" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23" s="15">
         <f>VLOOKUP(I23,Feuil2!A1:B3,2,0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23" s="61" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" s="16">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K23" s="16">
         <f t="shared" si="1"/>
-        <v>10.5</v>
-      </c>
-      <c r="L23" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="L23" s="27"/>
       <c r="M23" s="46"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
       <c r="V23" s="26"/>
       <c r="W23" s="67"/>
       <c r="X23" s="17"/>
@@ -2602,23 +2750,23 @@
       <c r="AA23" s="67"/>
       <c r="AB23" s="97">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v>18</v>
       </c>
       <c r="AC23" s="21"/>
     </row>
-    <row r="24" spans="2:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="94">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>32</v>
       </c>
       <c r="D24" s="14">
         <v>0</v>
       </c>
       <c r="E24" s="14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F24" s="14">
         <v>0</v>
@@ -2626,111 +2774,110 @@
       <c r="G24" s="14">
         <v>0</v>
       </c>
-      <c r="H24" s="15">
-        <f>VLOOKUP(I24,Feuil2!A1:B3,2,0)</f>
-        <v>75</v>
-      </c>
+      <c r="H24" s="15"/>
       <c r="I24" s="61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24" s="16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K24" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="L24" s="27"/>
       <c r="M24" s="46"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
       <c r="V24" s="26"/>
       <c r="W24" s="67"/>
       <c r="X24" s="17"/>
       <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="67"/>
-      <c r="AB24" s="97">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
+      <c r="AB24" s="97"/>
       <c r="AC24" s="21"/>
     </row>
-    <row r="25" spans="2:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="94">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="D25" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F25" s="14">
         <v>0</v>
       </c>
       <c r="G25" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="17"/>
+      <c r="J25" s="16">
+        <v>20</v>
+      </c>
+      <c r="K25" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L25" s="27"/>
       <c r="M25" s="46"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="75"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
       <c r="V25" s="26"/>
       <c r="W25" s="67"/>
       <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="67"/>
-      <c r="AB25" s="97"/>
+      <c r="AB25" s="97">
+        <f>J25-K25</f>
+        <v>14</v>
+      </c>
       <c r="AC25" s="21"/>
     </row>
     <row r="26" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="94">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D26" s="14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E26" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F26" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" s="14">
-        <v>3</v>
-      </c>
-      <c r="H26" s="15">
-        <f>VLOOKUP(I26,Feuil2!A1:B3,2,0)</f>
-        <v>100</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H26" s="15"/>
       <c r="I26" s="61" t="s">
         <v>3</v>
       </c>
@@ -2739,43 +2886,40 @@
       </c>
       <c r="K26" s="16">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L26" s="27"/>
       <c r="M26" s="46"/>
       <c r="N26" s="24"/>
       <c r="O26" s="73"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
       <c r="V26" s="26"/>
       <c r="W26" s="67"/>
       <c r="X26" s="17"/>
       <c r="Y26" s="17"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="67"/>
-      <c r="AB26" s="97">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
+      <c r="AB26" s="97"/>
       <c r="AC26" s="21"/>
     </row>
     <row r="27" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="94">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D27" s="14">
         <v>0</v>
       </c>
       <c r="E27" s="14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F27" s="14">
         <v>0</v>
@@ -2783,147 +2927,152 @@
       <c r="G27" s="14">
         <v>0</v>
       </c>
-      <c r="H27" s="15"/>
+      <c r="H27" s="15">
+        <f>VLOOKUP(I27,Feuil2!A1:B3,2,0)</f>
+        <v>100</v>
+      </c>
       <c r="I27" s="61" t="s">
         <v>3</v>
       </c>
       <c r="J27" s="16">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="K27" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="17"/>
       <c r="W27" s="67"/>
       <c r="X27" s="17"/>
       <c r="Y27" s="17"/>
       <c r="Z27" s="17"/>
       <c r="AA27" s="67"/>
-      <c r="AB27" s="97"/>
+      <c r="AB27" s="97">
+        <f t="shared" ref="AB27:AB33" si="4">J27-K27</f>
+        <v>13.5</v>
+      </c>
       <c r="AC27" s="21"/>
     </row>
-    <row r="28" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="94">
+    <row r="28" spans="2:29" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="95">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="14">
-        <v>1</v>
-      </c>
-      <c r="E28" s="14">
-        <v>5</v>
-      </c>
-      <c r="F28" s="14">
-        <v>0</v>
-      </c>
-      <c r="G28" s="14">
-        <v>0</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="86">
+        <v>0</v>
+      </c>
+      <c r="E28" s="86">
+        <v>0</v>
+      </c>
+      <c r="F28" s="86">
+        <v>0</v>
+      </c>
+      <c r="G28" s="86">
+        <v>0</v>
+      </c>
+      <c r="H28" s="87">
+        <f>VLOOKUP(I28,Feuil2!A1:B3,2,0)</f>
+        <v>100</v>
+      </c>
+      <c r="I28" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="16">
-        <v>20</v>
-      </c>
-      <c r="K28" s="16">
+      <c r="J28" s="89">
+        <v>21</v>
+      </c>
+      <c r="K28" s="89">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L28" s="27"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="67"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="67"/>
-      <c r="AB28" s="97">
-        <f>J28-K28</f>
-        <v>14</v>
-      </c>
-      <c r="AC28" s="21"/>
-    </row>
-    <row r="29" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="94">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="14">
-        <v>10</v>
-      </c>
-      <c r="E29" s="14">
-        <v>0</v>
-      </c>
-      <c r="F29" s="14">
-        <v>2</v>
-      </c>
-      <c r="G29" s="14">
-        <v>10</v>
-      </c>
-      <c r="H29" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="91"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="91"/>
+      <c r="AB28" s="101">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="AC28" s="92"/>
+    </row>
+    <row r="29" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="78"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="79">
+        <v>0</v>
+      </c>
+      <c r="E29" s="79">
+        <v>0</v>
+      </c>
+      <c r="F29" s="79">
+        <v>0</v>
+      </c>
+      <c r="G29" s="79">
+        <v>0</v>
+      </c>
+      <c r="H29" s="15">
+        <f>VLOOKUP(I29,Feuil2!A1:B3,2,0)</f>
+        <v>100</v>
+      </c>
       <c r="I29" s="61" t="s">
         <v>3</v>
       </c>
       <c r="J29" s="16">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K29" s="16">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="L29" s="27"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="67"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="67"/>
-      <c r="AB29" s="97"/>
-      <c r="AC29" s="21"/>
-    </row>
-    <row r="30" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="94">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="76"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="76"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="76"/>
+      <c r="AB29" s="83">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AC29" s="84"/>
+    </row>
+    <row r="30" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="12"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="14">
         <v>0</v>
       </c>
@@ -2944,7 +3093,7 @@
         <v>3</v>
       </c>
       <c r="J30" s="16">
-        <v>13.5</v>
+        <v>5</v>
       </c>
       <c r="K30" s="16">
         <f t="shared" si="1"/>
@@ -2954,134 +3103,124 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
       <c r="O30" s="67"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
       <c r="V30" s="17"/>
       <c r="W30" s="67"/>
       <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
       <c r="Z30" s="17"/>
       <c r="AA30" s="67"/>
-      <c r="AB30" s="97">
-        <f t="shared" ref="AB30:AB36" si="4">J30-K30</f>
-        <v>13.5</v>
+      <c r="AB30" s="20">
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AC30" s="21"/>
     </row>
-    <row r="31" spans="2:29" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="95">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="C31" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="86">
-        <v>0</v>
-      </c>
-      <c r="E31" s="86">
-        <v>0</v>
-      </c>
-      <c r="F31" s="86">
-        <v>0</v>
-      </c>
-      <c r="G31" s="86">
-        <v>0</v>
-      </c>
-      <c r="H31" s="87">
+    <row r="31" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="12"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="14">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0</v>
+      </c>
+      <c r="H31" s="15">
         <f>VLOOKUP(I31,Feuil2!A1:B3,2,0)</f>
-        <v>100</v>
-      </c>
-      <c r="I31" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="J31" s="89">
-        <v>21</v>
-      </c>
-      <c r="K31" s="89">
+        <v>75</v>
+      </c>
+      <c r="I31" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="16">
+        <v>5</v>
+      </c>
+      <c r="K31" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="91"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="90"/>
-      <c r="Z31" s="90"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="101">
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="67"/>
+      <c r="AB31" s="20">
         <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="AC31" s="92"/>
+        <v>5</v>
+      </c>
+      <c r="AC31" s="21"/>
     </row>
     <row r="32" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="78"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="79">
-        <v>0</v>
-      </c>
-      <c r="E32" s="79">
-        <v>0</v>
-      </c>
-      <c r="F32" s="79">
-        <v>0</v>
-      </c>
-      <c r="G32" s="79">
-        <v>0</v>
-      </c>
-      <c r="H32" s="15">
-        <f>VLOOKUP(I32,Feuil2!A1:B3,2,0)</f>
-        <v>100</v>
-      </c>
-      <c r="I32" s="61" t="s">
-        <v>3</v>
-      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="14">
+        <v>0</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0</v>
+      </c>
+      <c r="F32" s="14">
+        <v>0</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="61"/>
       <c r="J32" s="16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K32" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="76"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="76"/>
-      <c r="AB32" s="83">
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="67"/>
+      <c r="AB32" s="20">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="AC32" s="84"/>
+        <v>5</v>
+      </c>
+      <c r="AC32" s="21"/>
     </row>
     <row r="33" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="12"/>
-      <c r="C33" s="30"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="14">
         <v>0</v>
       </c>
@@ -3096,37 +3235,37 @@
       </c>
       <c r="H33" s="15">
         <f>VLOOKUP(I33,Feuil2!A1:B3,2,0)</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I33" s="61" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J33" s="16">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K33" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="67"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="68"/>
       <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="67"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="68"/>
       <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="67"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="67"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="68"/>
       <c r="AB33" s="20">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AC33" s="21"/>
     </row>
@@ -3145,12 +3284,9 @@
       <c r="G34" s="14">
         <v>0</v>
       </c>
-      <c r="H34" s="15">
-        <f>VLOOKUP(I34,Feuil2!A1:B3,2,0)</f>
-        <v>75</v>
-      </c>
+      <c r="H34" s="15"/>
       <c r="I34" s="61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J34" s="16">
         <v>5</v>
@@ -3159,31 +3295,28 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="67"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="68"/>
       <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="67"/>
-      <c r="AB34" s="20">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="20"/>
       <c r="AC34" s="21"/>
     </row>
     <row r="35" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="12"/>
-      <c r="C35" s="30"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="14">
         <v>0</v>
       </c>
@@ -3197,34 +3330,33 @@
         <v>0</v>
       </c>
       <c r="H35" s="15"/>
-      <c r="I35" s="61"/>
+      <c r="I35" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="J35" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K35" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="67"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="68"/>
       <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="67"/>
-      <c r="AB35" s="20">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="20"/>
       <c r="AC35" s="21"/>
     </row>
     <row r="36" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3244,27 +3376,27 @@
       </c>
       <c r="H36" s="15">
         <f>VLOOKUP(I36,Feuil2!A1:B3,2,0)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I36" s="61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J36" s="16">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="K36" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L36" s="17"/>
+      <c r="L36" s="28"/>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
       <c r="O36" s="68"/>
       <c r="P36" s="17"/>
-      <c r="Q36" s="28"/>
+      <c r="Q36" s="17"/>
       <c r="R36" s="28"/>
       <c r="S36" s="68"/>
-      <c r="T36" s="17"/>
+      <c r="T36" s="28"/>
       <c r="U36" s="28"/>
       <c r="V36" s="28"/>
       <c r="W36" s="68"/>
@@ -3273,14 +3405,14 @@
       <c r="Z36" s="28"/>
       <c r="AA36" s="68"/>
       <c r="AB36" s="20">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>J36-K36</f>
+        <v>50</v>
       </c>
       <c r="AC36" s="21"/>
     </row>
     <row r="37" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="12"/>
-      <c r="C37" s="30"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="14">
         <v>0</v>
       </c>
@@ -3293,12 +3425,15 @@
       <c r="G37" s="14">
         <v>0</v>
       </c>
-      <c r="H37" s="15"/>
+      <c r="H37" s="15">
+        <f>VLOOKUP(I37,Feuil2!A1:B3,2,0)</f>
+        <v>100</v>
+      </c>
       <c r="I37" s="61" t="s">
         <v>3</v>
       </c>
       <c r="J37" s="16">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K37" s="16">
         <f t="shared" si="1"/>
@@ -3308,9 +3443,9 @@
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
       <c r="O37" s="68"/>
-      <c r="P37" s="17"/>
+      <c r="P37" s="28"/>
       <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
+      <c r="R37" s="17"/>
       <c r="S37" s="68"/>
       <c r="T37" s="28"/>
       <c r="U37" s="28"/>
@@ -3320,7 +3455,10 @@
       <c r="Y37" s="28"/>
       <c r="Z37" s="28"/>
       <c r="AA37" s="68"/>
-      <c r="AB37" s="20"/>
+      <c r="AB37" s="20">
+        <f>J37-K37</f>
+        <v>20</v>
+      </c>
       <c r="AC37" s="21"/>
     </row>
     <row r="38" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3338,12 +3476,15 @@
       <c r="G38" s="14">
         <v>0</v>
       </c>
-      <c r="H38" s="15"/>
+      <c r="H38" s="15">
+        <f>VLOOKUP(I38,Feuil2!A1:B3,2,0)</f>
+        <v>100</v>
+      </c>
       <c r="I38" s="61" t="s">
         <v>3</v>
       </c>
       <c r="J38" s="16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K38" s="16">
         <f t="shared" si="1"/>
@@ -3353,9 +3494,9 @@
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
       <c r="O38" s="68"/>
-      <c r="P38" s="17"/>
+      <c r="P38" s="28"/>
       <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
+      <c r="R38" s="17"/>
       <c r="S38" s="68"/>
       <c r="T38" s="28"/>
       <c r="U38" s="28"/>
@@ -3365,7 +3506,10 @@
       <c r="Y38" s="28"/>
       <c r="Z38" s="28"/>
       <c r="AA38" s="68"/>
-      <c r="AB38" s="20"/>
+      <c r="AB38" s="20">
+        <f>J38-K38</f>
+        <v>5</v>
+      </c>
       <c r="AC38" s="21"/>
     </row>
     <row r="39" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3383,15 +3527,12 @@
       <c r="G39" s="14">
         <v>0</v>
       </c>
-      <c r="H39" s="15">
-        <f>VLOOKUP(I39,Feuil2!A1:B3,2,0)</f>
-        <v>100</v>
-      </c>
+      <c r="H39" s="15"/>
       <c r="I39" s="61" t="s">
         <v>3</v>
       </c>
       <c r="J39" s="16">
-        <v>50</v>
+        <v>1.5</v>
       </c>
       <c r="K39" s="16">
         <f t="shared" si="1"/>
@@ -3401,8 +3542,8 @@
       <c r="M39" s="28"/>
       <c r="N39" s="28"/>
       <c r="O39" s="68"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
       <c r="R39" s="28"/>
       <c r="S39" s="68"/>
       <c r="T39" s="28"/>
@@ -3413,10 +3554,7 @@
       <c r="Y39" s="28"/>
       <c r="Z39" s="28"/>
       <c r="AA39" s="68"/>
-      <c r="AB39" s="20">
-        <f>J39-K39</f>
-        <v>50</v>
-      </c>
+      <c r="AB39" s="20"/>
       <c r="AC39" s="21"/>
     </row>
     <row r="40" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3436,13 +3574,13 @@
       </c>
       <c r="H40" s="15">
         <f>VLOOKUP(I40,Feuil2!A1:B3,2,0)</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I40" s="61" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J40" s="16">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K40" s="16">
         <f t="shared" si="1"/>
@@ -3454,8 +3592,8 @@
       <c r="O40" s="68"/>
       <c r="P40" s="28"/>
       <c r="Q40" s="28"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="68"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="67"/>
       <c r="T40" s="28"/>
       <c r="U40" s="28"/>
       <c r="V40" s="28"/>
@@ -3466,7 +3604,7 @@
       <c r="AA40" s="68"/>
       <c r="AB40" s="20">
         <f>J40-K40</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AC40" s="21"/>
     </row>
@@ -3487,13 +3625,13 @@
       </c>
       <c r="H41" s="15">
         <f>VLOOKUP(I41,Feuil2!A1:B3,2,0)</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I41" s="61" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J41" s="16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K41" s="16">
         <f t="shared" si="1"/>
@@ -3505,9 +3643,9 @@
       <c r="O41" s="68"/>
       <c r="P41" s="28"/>
       <c r="Q41" s="28"/>
-      <c r="R41" s="17"/>
+      <c r="R41" s="28"/>
       <c r="S41" s="68"/>
-      <c r="T41" s="28"/>
+      <c r="T41" s="17"/>
       <c r="U41" s="28"/>
       <c r="V41" s="28"/>
       <c r="W41" s="68"/>
@@ -3517,7 +3655,7 @@
       <c r="AA41" s="68"/>
       <c r="AB41" s="20">
         <f>J41-K41</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC41" s="21"/>
     </row>
@@ -3538,10 +3676,10 @@
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="61" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42" s="16">
-        <v>1.5</v>
+        <v>50</v>
       </c>
       <c r="K42" s="16">
         <f t="shared" si="1"/>
@@ -3555,16 +3693,16 @@
       <c r="Q42" s="28"/>
       <c r="R42" s="28"/>
       <c r="S42" s="68"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
       <c r="V42" s="28"/>
       <c r="W42" s="68"/>
       <c r="X42" s="28"/>
       <c r="Y42" s="28"/>
       <c r="Z42" s="28"/>
       <c r="AA42" s="68"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="21"/>
+      <c r="AB42" s="38"/>
+      <c r="AC42" s="39"/>
     </row>
     <row r="43" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="12"/>
@@ -3589,7 +3727,7 @@
         <v>4</v>
       </c>
       <c r="J43" s="16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K43" s="16">
         <f t="shared" si="1"/>
@@ -3602,20 +3740,20 @@
       <c r="P43" s="28"/>
       <c r="Q43" s="28"/>
       <c r="R43" s="28"/>
-      <c r="S43" s="67"/>
+      <c r="S43" s="68"/>
       <c r="T43" s="28"/>
       <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
+      <c r="V43" s="17"/>
       <c r="W43" s="68"/>
       <c r="X43" s="28"/>
       <c r="Y43" s="28"/>
       <c r="Z43" s="28"/>
       <c r="AA43" s="68"/>
-      <c r="AB43" s="20">
-        <f>J43-K43</f>
-        <v>30</v>
-      </c>
-      <c r="AC43" s="21"/>
+      <c r="AB43" s="38">
+        <f t="shared" ref="AB43:AB51" si="5">J43-K43</f>
+        <v>20</v>
+      </c>
+      <c r="AC43" s="39"/>
     </row>
     <row r="44" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="12"/>
@@ -3632,10 +3770,7 @@
       <c r="G44" s="14">
         <v>0</v>
       </c>
-      <c r="H44" s="15">
-        <f>VLOOKUP(I44,Feuil2!A1:B3,2,0)</f>
-        <v>75</v>
-      </c>
+      <c r="H44" s="15"/>
       <c r="I44" s="61" t="s">
         <v>4</v>
       </c>
@@ -3654,19 +3789,19 @@
       <c r="Q44" s="28"/>
       <c r="R44" s="28"/>
       <c r="S44" s="68"/>
-      <c r="T44" s="17"/>
+      <c r="T44" s="28"/>
       <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
+      <c r="V44" s="17"/>
       <c r="W44" s="68"/>
       <c r="X44" s="28"/>
       <c r="Y44" s="28"/>
       <c r="Z44" s="28"/>
       <c r="AA44" s="68"/>
-      <c r="AB44" s="20">
-        <f>J44-K44</f>
+      <c r="AB44" s="38">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="AC44" s="21"/>
+      <c r="AC44" s="39"/>
     </row>
     <row r="45" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="12"/>
@@ -3688,7 +3823,7 @@
         <v>4</v>
       </c>
       <c r="J45" s="16">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K45" s="16">
         <f t="shared" si="1"/>
@@ -3702,15 +3837,18 @@
       <c r="Q45" s="28"/>
       <c r="R45" s="28"/>
       <c r="S45" s="68"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
       <c r="V45" s="28"/>
-      <c r="W45" s="68"/>
+      <c r="W45" s="67"/>
       <c r="X45" s="28"/>
       <c r="Y45" s="28"/>
       <c r="Z45" s="28"/>
       <c r="AA45" s="68"/>
-      <c r="AB45" s="38"/>
+      <c r="AB45" s="38">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="AC45" s="39"/>
     </row>
     <row r="46" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3728,15 +3866,12 @@
       <c r="G46" s="14">
         <v>0</v>
       </c>
-      <c r="H46" s="15">
-        <f>VLOOKUP(I46,Feuil2!A1:B3,2,0)</f>
-        <v>75</v>
-      </c>
+      <c r="H46" s="15"/>
       <c r="I46" s="61" t="s">
         <v>4</v>
       </c>
       <c r="J46" s="16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K46" s="16">
         <f t="shared" si="1"/>
@@ -3752,15 +3887,15 @@
       <c r="S46" s="68"/>
       <c r="T46" s="28"/>
       <c r="U46" s="28"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="68"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="67"/>
       <c r="X46" s="28"/>
       <c r="Y46" s="28"/>
       <c r="Z46" s="28"/>
       <c r="AA46" s="68"/>
       <c r="AB46" s="38">
-        <f t="shared" ref="AB46:AB54" si="5">J46-K46</f>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="AC46" s="39"/>
     </row>
@@ -3784,7 +3919,7 @@
         <v>4</v>
       </c>
       <c r="J47" s="16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K47" s="16">
         <f t="shared" si="1"/>
@@ -3800,15 +3935,15 @@
       <c r="S47" s="68"/>
       <c r="T47" s="28"/>
       <c r="U47" s="28"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="68"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="67"/>
       <c r="X47" s="28"/>
       <c r="Y47" s="28"/>
       <c r="Z47" s="28"/>
       <c r="AA47" s="68"/>
       <c r="AB47" s="38">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC47" s="39"/>
     </row>
@@ -3849,8 +3984,8 @@
       <c r="T48" s="28"/>
       <c r="U48" s="28"/>
       <c r="V48" s="28"/>
-      <c r="W48" s="67"/>
-      <c r="X48" s="28"/>
+      <c r="W48" s="68"/>
+      <c r="X48" s="17"/>
       <c r="Y48" s="28"/>
       <c r="Z48" s="28"/>
       <c r="AA48" s="68"/>
@@ -3880,7 +4015,7 @@
         <v>4</v>
       </c>
       <c r="J49" s="16">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K49" s="16">
         <f t="shared" si="1"/>
@@ -3897,14 +4032,14 @@
       <c r="T49" s="28"/>
       <c r="U49" s="28"/>
       <c r="V49" s="28"/>
-      <c r="W49" s="67"/>
-      <c r="X49" s="28"/>
+      <c r="W49" s="68"/>
+      <c r="X49" s="17"/>
       <c r="Y49" s="28"/>
       <c r="Z49" s="28"/>
       <c r="AA49" s="68"/>
       <c r="AB49" s="38">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AC49" s="39"/>
     </row>
@@ -3928,7 +4063,7 @@
         <v>4</v>
       </c>
       <c r="J50" s="16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K50" s="16">
         <f t="shared" si="1"/>
@@ -3945,14 +4080,14 @@
       <c r="T50" s="28"/>
       <c r="U50" s="28"/>
       <c r="V50" s="28"/>
-      <c r="W50" s="67"/>
+      <c r="W50" s="68"/>
       <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
+      <c r="Y50" s="17"/>
       <c r="Z50" s="28"/>
       <c r="AA50" s="68"/>
       <c r="AB50" s="38">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC50" s="39"/>
     </row>
@@ -3976,274 +4111,179 @@
         <v>4</v>
       </c>
       <c r="J51" s="16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K51" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="68"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="68"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="68"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="67"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="67"/>
       <c r="X51" s="17"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="68"/>
-      <c r="AB51" s="38">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="AC51" s="39"/>
-    </row>
-    <row r="52" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="12"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="14">
-        <v>0</v>
-      </c>
-      <c r="E52" s="14">
-        <v>0</v>
-      </c>
-      <c r="F52" s="14">
-        <v>0</v>
-      </c>
-      <c r="G52" s="14">
-        <v>0</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="16">
-        <v>20</v>
-      </c>
-      <c r="K52" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="68"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="68"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="68"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="68"/>
-      <c r="AB52" s="38">
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="67"/>
+      <c r="AB51" s="40">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="AC52" s="39"/>
-    </row>
-    <row r="53" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="12"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="14">
-        <v>0</v>
-      </c>
-      <c r="E53" s="14">
-        <v>0</v>
-      </c>
-      <c r="F53" s="14">
-        <v>0</v>
-      </c>
-      <c r="G53" s="14">
-        <v>0</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="J53" s="16">
-        <v>10</v>
-      </c>
-      <c r="K53" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="68"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="68"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="68"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="68"/>
-      <c r="AB53" s="38">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="AC53" s="39"/>
-    </row>
-    <row r="54" spans="2:29" ht="35" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="12"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="14">
-        <v>0</v>
-      </c>
-      <c r="E54" s="14">
-        <v>0</v>
-      </c>
-      <c r="F54" s="14">
-        <v>0</v>
-      </c>
-      <c r="G54" s="14">
-        <v>0</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="16">
-        <v>20</v>
-      </c>
-      <c r="K54" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="67"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="67"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="67"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="17"/>
-      <c r="AA54" s="67"/>
-      <c r="AB54" s="40">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="AC54" s="39"/>
-    </row>
-    <row r="55" spans="2:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
+      <c r="AC51" s="39"/>
+    </row>
+    <row r="52" spans="2:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="41">
-        <f>SUM(D13:D54)</f>
+      <c r="C52" s="4"/>
+      <c r="D52" s="41">
+        <f>SUM(D10:D51)</f>
         <v>39.5</v>
       </c>
-      <c r="E55" s="42">
-        <f>SUM(E13:E54)</f>
+      <c r="E52" s="42">
+        <f>SUM(E10:E51)</f>
         <v>39</v>
       </c>
-      <c r="F55" s="42">
-        <f>SUM(F13:F54)</f>
+      <c r="F52" s="42">
+        <f>SUM(F10:F51)</f>
         <v>16</v>
       </c>
-      <c r="G55" s="42">
-        <f>SUM(G13:G54)</f>
+      <c r="G52" s="42">
+        <f>SUM(G10:G51)</f>
         <v>31</v>
       </c>
-      <c r="H55" s="43"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="45"/>
-      <c r="AB55" s="81">
-        <f>SUM(AB13:AB54)</f>
+      <c r="H52" s="43"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="45"/>
+      <c r="AB52" s="81">
+        <f>SUM(AB10:AB51)</f>
         <v>334</v>
       </c>
-      <c r="AC55" s="80"/>
-    </row>
-    <row r="56" spans="2:29" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
+      <c r="AC52" s="80"/>
+    </row>
+    <row r="53" spans="2:29" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="41">
-        <f>135-D55</f>
+      <c r="C53" s="3"/>
+      <c r="D53" s="41">
+        <f>135-D52</f>
         <v>95.5</v>
       </c>
-      <c r="E56" s="42">
-        <f>135-E55</f>
+      <c r="E53" s="42">
+        <f>135-E52</f>
         <v>96</v>
       </c>
-      <c r="F56" s="42">
-        <f>135-F55</f>
+      <c r="F53" s="42">
+        <f>135-F52</f>
         <v>119</v>
       </c>
-      <c r="G56" s="45">
-        <f>135-G55</f>
+      <c r="G53" s="45">
+        <f>135-G52</f>
         <v>104</v>
       </c>
-      <c r="H56" s="45"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="AB53" s="47"/>
+    </row>
+    <row r="54" spans="2:29" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="AB54" s="47"/>
+    </row>
+    <row r="55" spans="2:29" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="50">
+        <f>SUM(J10:J51)</f>
+        <v>537</v>
+      </c>
+      <c r="K55" s="45">
+        <f>SUM(K10:K51)</f>
+        <v>119.5</v>
+      </c>
+      <c r="AB55" s="47"/>
+    </row>
+    <row r="56" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
       <c r="AB56" s="47"/>
     </row>
-    <row r="57" spans="2:29" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="45"/>
+    <row r="57" spans="2:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="51">
+        <f>135*3</f>
+        <v>405</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
       <c r="AB57" s="47"/>
     </row>
-    <row r="58" spans="2:29" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="50">
-        <f>SUM(J13:J54)</f>
-        <v>537</v>
-      </c>
-      <c r="K58" s="45">
-        <f>SUM(K13:K54)</f>
-        <v>119.5</v>
-      </c>
+    <row r="58" spans="2:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="B58" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="58"/>
+      <c r="D58" s="52">
+        <f>D57-K55</f>
+        <v>285.5</v>
+      </c>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
       <c r="AB58" s="47"/>
     </row>
-    <row r="59" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="48"/>
+    <row r="59" spans="2:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="B59" s="53"/>
       <c r="C59" s="48"/>
       <c r="D59" s="48"/>
       <c r="E59" s="48"/>
@@ -4255,137 +4295,88 @@
       <c r="K59" s="48"/>
       <c r="AB59" s="47"/>
     </row>
-    <row r="60" spans="2:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="51">
-        <f>135*3</f>
-        <v>405</v>
-      </c>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="AB60" s="47"/>
-    </row>
-    <row r="61" spans="2:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="B61" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="52">
-        <f>D60-K58</f>
-        <v>285.5</v>
-      </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="64"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="48"/>
-      <c r="AB61" s="47"/>
-    </row>
-    <row r="62" spans="2:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="B62" s="53"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
-      <c r="AB62" s="47"/>
-    </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-    </row>
-    <row r="64" spans="2:29" s="56" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="B64" s="55"/>
-      <c r="I64" s="65"/>
-      <c r="O64" s="65"/>
-      <c r="S64" s="65"/>
-      <c r="W64" s="65"/>
-      <c r="AA64" s="65"/>
-    </row>
-    <row r="65" spans="9:27" s="56" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="I65" s="65"/>
-      <c r="O65" s="65"/>
-      <c r="S65" s="65"/>
-      <c r="W65" s="65"/>
-      <c r="AA65" s="65"/>
-    </row>
-    <row r="66" spans="9:27" s="56" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="I66" s="65"/>
-      <c r="O66" s="65"/>
-      <c r="S66" s="65"/>
-      <c r="W66" s="65"/>
-      <c r="AA66" s="65"/>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+    </row>
+    <row r="61" spans="2:29" s="56" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="B61" s="55"/>
+      <c r="I61" s="65"/>
+      <c r="O61" s="65"/>
+      <c r="S61" s="65"/>
+      <c r="W61" s="65"/>
+      <c r="AA61" s="65"/>
+    </row>
+    <row r="62" spans="2:29" s="56" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="I62" s="65"/>
+      <c r="O62" s="65"/>
+      <c r="S62" s="65"/>
+      <c r="W62" s="65"/>
+      <c r="AA62" s="65"/>
+    </row>
+    <row r="63" spans="2:29" s="56" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+      <c r="I63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="S63" s="65"/>
+      <c r="W63" s="65"/>
+      <c r="AA63" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:AA10"/>
-    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:AA7"/>
+    <mergeCell ref="AB7:AB8"/>
   </mergeCells>
-  <conditionalFormatting sqref="I23">
+  <conditionalFormatting sqref="I20">
     <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",I23)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I54">
+  <conditionalFormatting sqref="I9:I51">
     <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="En attente">
-      <formula>NOT(ISERROR(SEARCH("En attente",I12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En attente",I9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",I12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",I9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",I12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:G54">
+  <conditionalFormatting sqref="D9:G51">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="7">
-      <formula>$I12="Terminé"</formula>
+      <formula>$I9="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:G54">
+  <conditionalFormatting sqref="D9:G51">
     <cfRule type="expression" dxfId="1" priority="8">
-      <formula>$I12="En cours"</formula>
+      <formula>$I9="En cours"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="9">
-      <formula>$I12="En attente"</formula>
+      <formula>$I9="En attente"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I12:I54" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I9:I51" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"En attente,En cours,Terminé"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4435,7 +4426,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4451,6 +4442,6 @@
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>